--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -177,6 +177,17 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="14"/>
     </font>
   </fonts>
   <fills count="33">
@@ -629,7 +640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +648,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1175,432 +1189,443 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="4.78" customWidth="1" style="2" min="1" max="1"/>
+    <col width="4.78" customWidth="1" style="2" min="2" max="2"/>
+    <col width="4.78" customWidth="1" style="2" min="3" max="3"/>
+    <col width="4.78" customWidth="1" style="2" min="4" max="4"/>
+    <col width="4.78" customWidth="1" style="2" min="5" max="5"/>
+    <col width="4.78" customWidth="1" style="2" min="6" max="6"/>
+    <col width="4.78" customWidth="1" style="2" min="7" max="7"/>
+    <col width="4.78" customWidth="1" style="2" min="8" max="8"/>
+    <col width="4.78" customWidth="1" style="2" min="9" max="9"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="25" customHeight="1" s="2">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>C1</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>D1</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>E1</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>F1</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>G1</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>H1</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>I1</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="25" customHeight="1" s="2">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>A2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>D2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>E2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>F2</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>H2</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>I2</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="25" customHeight="1" s="2">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>A3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>C3</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>D3</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>E3</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>F3</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>G3</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>H3</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>I3</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="25" customHeight="1" s="2">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>A4</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>C4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>D4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>F4</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>G4</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>H4</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>I4</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="25" customHeight="1" s="2">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>A5</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>B5</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>C5</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>D5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>E5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>F5</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>G5</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>H5</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>I5</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="25" customHeight="1" s="2">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>A6</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>C6</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>D6</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>E6</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>F6</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>G6</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>H6</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>I6</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="25" customHeight="1" s="2">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>A7</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>C7</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>D7</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>E7</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>F7</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>G7</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>H7</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>I7</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="25" customHeight="1" s="2">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>A8</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>B8</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>C8</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>D8</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>E8</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>F8</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>G8</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>H8</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" s="5" t="inlineStr">
         <is>
           <t>I8</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="25" customHeight="1" s="2">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>A9</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>B9</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>C9</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>D9</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>E9</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>G9</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="5" t="inlineStr">
         <is>
           <t>H9</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="5" t="inlineStr">
         <is>
           <t>I9</t>
         </is>
@@ -1653,7 +1678,18 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
